--- a/source/databricks/calculation_engine/tests/features/given_an_energy_calculation/when_ga_only_has_nonprofiled_consumption/Oracle - only nonprofiled.xlsx
+++ b/source/databricks/calculation_engine/tests/features/given_an_energy_calculation/when_ga_only_has_nonprofiled_consumption/Oracle - only nonprofiled.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\opengeh-wholesale\source\databricks\calculation_engine\tests\features\given_an_energy_calculation\when_ga_only_has_nonprofiled_consumption\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69A2AFD-275A-4FCF-9898-58045B262548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474F639B-E9E7-4EC3-9772-7E070943D5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="51420" windowHeight="21100" xr2:uid="{B26405EC-4681-4CC9-BF80-F87B3459AD72}"/>
   </bookViews>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="125">
   <si>
     <t>energy_supplier_id</t>
   </si>
@@ -461,9 +461,6 @@
     <t>170000000000000102</t>
   </si>
   <si>
-    <t>170000000000000202</t>
-  </si>
-  <si>
     <t>200000001500000001</t>
   </si>
   <si>
@@ -480,12 +477,6 @@
   </si>
   <si>
     <t>170000000000000103</t>
-  </si>
-  <si>
-    <t>170000001500000201</t>
-  </si>
-  <si>
-    <t>170000000000000203</t>
   </si>
   <si>
     <t>180000001500000001</t>
@@ -1451,8 +1442,8 @@
   </sheetPr>
   <dimension ref="A1:CN400"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1579,10 +1570,10 @@
         <v>25</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>100</v>
@@ -1619,11 +1610,11 @@
       </c>
       <c r="T2" s="9">
         <f>SUMIFS(Tabel1342323[TotalHour],Tabel1342323[settlement_method],"D01",Tabel1342323[resolution],"PT15M")</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U2" s="42">
         <f>SUMIFS(Tabel1342323[Quarter1],Tabel1342323[settlement_method],"D01",Tabel1342323[resolution],"PT15M")</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V2" s="42">
         <f>SUMIFS(Tabel1342323[Quarter2],Tabel1342323[settlement_method],"D01",Tabel1342323[resolution],"PT15M")</f>
@@ -1646,7 +1637,7 @@
         <v>800</v>
       </c>
       <c r="AE2" s="27" t="str" cm="1">
-        <f t="array" ref="AE2:AE4">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(AE28:AE41,AE28:AE41 &lt;&gt; "")))</f>
+        <f t="array" ref="AE2:AE3">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(AE28:AE41,AE28:AE41 &lt;&gt; "")))</f>
         <v>1000000000000</v>
       </c>
       <c r="AF2" s="27" t="str" cm="1">
@@ -1666,7 +1657,7 @@
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C3" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>100</v>
@@ -1689,10 +1680,10 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q3" s="29" t="s">
         <v>95</v>
@@ -1729,7 +1720,7 @@
         <v>801</v>
       </c>
       <c r="AE3" s="24" t="str">
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="AF3" s="24" t="str">
         <v>2200000000000</v>
@@ -1743,7 +1734,7 @@
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C4" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>100</v>
@@ -1772,7 +1763,7 @@
         <v>95</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="R4" s="24"/>
       <c r="S4" s="7" t="s">
@@ -1805,9 +1796,7 @@
       <c r="AD4" s="24" t="str">
         <v>802</v>
       </c>
-      <c r="AE4" s="24" t="str">
-        <v>3000000000000</v>
-      </c>
+      <c r="AE4" s="24"/>
       <c r="AF4" s="24"/>
       <c r="AG4" s="24"/>
       <c r="AH4" s="24" t="str">
@@ -1818,7 +1807,7 @@
     </row>
     <row r="5" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C5" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>100</v>
@@ -1847,7 +1836,7 @@
         <v>95</v>
       </c>
       <c r="Q5" s="29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="R5" s="24"/>
       <c r="S5" s="7" t="s">
@@ -1855,11 +1844,11 @@
       </c>
       <c r="T5" s="9">
         <f>SUMIFS(Tabel1342323[TotalHour],Tabel1342323[type],"E17",Tabel1342323[resolution],"PT15M")</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="U5" s="42">
         <f>SUMIFS(Tabel1342323[Quarter1],Tabel1342323[type],"E17",Tabel1342323[resolution],"PT15M")</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="V5" s="42">
         <f>SUMIFS(Tabel1342323[Quarter2],Tabel1342323[type],"E17",Tabel1342323[resolution],"PT15M")</f>
@@ -1889,7 +1878,7 @@
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C6" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>90</v>
@@ -2033,7 +2022,7 @@
     </row>
     <row r="8" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C8" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>90</v>
@@ -2086,38 +2075,22 @@
       <c r="AJ8" s="24"/>
     </row>
     <row r="9" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="C9" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="12">
-        <v>10</v>
-      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="41"/>
       <c r="I9" s="41"/>
-      <c r="J9" s="43">
+      <c r="J9" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v/>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="10" t="s">
-        <v>95</v>
-      </c>
+      <c r="O9" s="10"/>
       <c r="P9" s="29"/>
       <c r="Q9" s="29"/>
       <c r="R9" s="24"/>
@@ -2152,38 +2125,22 @@
       <c r="AJ9" s="24"/>
     </row>
     <row r="10" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="C10" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="12">
-        <v>10</v>
-      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
-      <c r="J10" s="43">
+      <c r="J10" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v/>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
       <c r="N10" s="10"/>
-      <c r="O10" s="10" t="s">
-        <v>95</v>
-      </c>
+      <c r="O10" s="10"/>
       <c r="P10" s="29"/>
       <c r="Q10" s="29"/>
       <c r="R10" s="15" t="s">
@@ -2226,38 +2183,22 @@
       <c r="AJ10" s="24"/>
     </row>
     <row r="11" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="C11" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="12">
-        <v>0.25</v>
-      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="41"/>
       <c r="I11" s="41"/>
-      <c r="J11" s="43">
+      <c r="J11" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>105</v>
-      </c>
+        <v/>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
       <c r="N11" s="10"/>
-      <c r="O11" s="10" t="s">
-        <v>95</v>
-      </c>
+      <c r="O11" s="10"/>
       <c r="P11" s="29"/>
       <c r="Q11" s="29"/>
       <c r="R11" s="15" t="s">
@@ -2304,7 +2245,7 @@
     </row>
     <row r="12" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C12" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>99</v>
@@ -2383,7 +2324,7 @@
     </row>
     <row r="13" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C13" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>99</v>
@@ -2462,7 +2403,7 @@
     </row>
     <row r="14" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C14" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>99</v>
@@ -2502,24 +2443,24 @@
       </c>
       <c r="T14" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(Tabel1342323[brp_id],MATCH(U14,Tabel1342323[es_id],0)),"")</f>
-        <v>1100000000000</v>
+        <v>2200000000000</v>
       </c>
       <c r="U14" s="26" t="str">
         <f>IF(AE$3=0,"",AE$3)</f>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="V14" s="20">
         <f>SUMIFS(Tabel1342323[TotalHour],Tabel1342323[es_id],U14,IF(B$2="production",Tabel1342323[type],Tabel1342323[settlement_method]),AG$2,Tabel1342323[resolution],"PT1H")/4</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="W14" s="19">
         <f>V14</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="X14" s="19"/>
       <c r="Y14" s="23">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="27"/>
       <c r="AA14" s="27"/>
@@ -2637,19 +2578,19 @@
       </c>
       <c r="T15" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(Tabel1342323[brp_id],MATCH(U15,Tabel1342323[es_id],0)),"")</f>
-        <v>1100000000000</v>
+        <v>2200000000000</v>
       </c>
       <c r="U15" s="26" t="str">
         <f t="shared" ref="U15:V17" si="3">U$14</f>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="V15" s="19">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="W15" s="19">
         <f>X15+W14</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="X15" s="19">
         <f>V15-Y14</f>
@@ -2657,7 +2598,7 @@
       </c>
       <c r="Y15" s="23">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="27"/>
       <c r="AA15" s="27"/>
@@ -2773,19 +2714,19 @@
       </c>
       <c r="T16" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(Tabel1342323[brp_id],MATCH(U16,Tabel1342323[es_id],0)),"")</f>
-        <v>1100000000000</v>
+        <v>2200000000000</v>
       </c>
       <c r="U16" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="V16" s="19">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="W16" s="19">
         <f>X16+W15</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="X16" s="19">
         <f>V16-Y15</f>
@@ -2793,7 +2734,7 @@
       </c>
       <c r="Y16" s="23">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="27"/>
       <c r="AA16" s="27"/>
@@ -2891,19 +2832,19 @@
       </c>
       <c r="T17" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(Tabel1342323[brp_id],MATCH(U17,Tabel1342323[es_id],0)),"")</f>
-        <v>1100000000000</v>
+        <v>2200000000000</v>
       </c>
       <c r="U17" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="V17" s="19">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="W17" s="19">
         <f>X17+W16</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="X17" s="19">
         <f>V17-Y16</f>
@@ -2911,7 +2852,7 @@
       </c>
       <c r="Y17" s="23">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="27"/>
       <c r="AA17" s="27"/>
@@ -3005,28 +2946,28 @@
       </c>
       <c r="S18" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(Tabel1342323[ga_id],MATCH(U18,Tabel1342323[es_id],0)),"")</f>
-        <v>800</v>
+        <v/>
       </c>
       <c r="T18" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(Tabel1342323[brp_id],MATCH(U18,Tabel1342323[es_id],0)),"")</f>
-        <v>2200000000000</v>
+        <v/>
       </c>
       <c r="U18" s="26" t="str">
         <f>IF(AE$4=0,"",AE$4)</f>
-        <v>3000000000000</v>
+        <v/>
       </c>
       <c r="V18" s="20">
         <f>SUMIFS(Tabel1342323[TotalHour],Tabel1342323[es_id],U18,IF(B$2="production",Tabel1342323[type],Tabel1342323[settlement_method]),AG$2,Tabel1342323[resolution],"PT1H")/4</f>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="W18" s="19">
         <f>V18</f>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="X18" s="19"/>
       <c r="Y18" s="23">
         <f t="shared" si="1"/>
-        <v>6.3E-2</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="27"/>
       <c r="AA18" s="27"/>
@@ -3120,31 +3061,31 @@
       </c>
       <c r="S19" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(Tabel1342323[ga_id],MATCH(U19,Tabel1342323[es_id],0)),"")</f>
-        <v>800</v>
+        <v/>
       </c>
       <c r="T19" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(Tabel1342323[brp_id],MATCH(U19,Tabel1342323[es_id],0)),"")</f>
-        <v>2200000000000</v>
+        <v/>
       </c>
       <c r="U19" s="26" t="str">
         <f t="shared" ref="U19:V21" si="4">U$18</f>
-        <v>3000000000000</v>
+        <v/>
       </c>
       <c r="V19" s="19">
         <f t="shared" si="4"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="W19" s="19">
         <f>X19+W18</f>
-        <v>6.2E-2</v>
+        <v>0</v>
       </c>
       <c r="X19" s="19">
         <f>V19-Y18</f>
-        <v>-5.0000000000000044E-4</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="23">
         <f t="shared" si="1"/>
-        <v>6.2E-2</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="27"/>
       <c r="AA19" s="27"/>
@@ -3232,31 +3173,31 @@
       </c>
       <c r="S20" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(Tabel1342323[ga_id],MATCH(U20,Tabel1342323[es_id],0)),"")</f>
-        <v>800</v>
+        <v/>
       </c>
       <c r="T20" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(Tabel1342323[brp_id],MATCH(U20,Tabel1342323[es_id],0)),"")</f>
-        <v>2200000000000</v>
+        <v/>
       </c>
       <c r="U20" s="26" t="str">
         <f t="shared" si="4"/>
-        <v>3000000000000</v>
+        <v/>
       </c>
       <c r="V20" s="19">
         <f t="shared" si="4"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="W20" s="19">
         <f>X20+W19</f>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="X20" s="19">
         <f>V20-Y19</f>
-        <v>5.0000000000000044E-4</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="23">
         <f t="shared" si="1"/>
-        <v>6.3E-2</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="27"/>
       <c r="AA20" s="27"/>
@@ -3368,31 +3309,31 @@
       </c>
       <c r="S21" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(Tabel1342323[ga_id],MATCH(U21,Tabel1342323[es_id],0)),"")</f>
-        <v>800</v>
+        <v/>
       </c>
       <c r="T21" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(Tabel1342323[brp_id],MATCH(U21,Tabel1342323[es_id],0)),"")</f>
-        <v>2200000000000</v>
+        <v/>
       </c>
       <c r="U21" s="26" t="str">
         <f t="shared" si="4"/>
-        <v>3000000000000</v>
+        <v/>
       </c>
       <c r="V21" s="19">
         <f t="shared" si="4"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="W21" s="19">
         <f>X21+W20</f>
-        <v>6.2E-2</v>
+        <v>0</v>
       </c>
       <c r="X21" s="19">
         <f>V21-Y20</f>
-        <v>-5.0000000000000044E-4</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="23">
         <f t="shared" si="1"/>
-        <v>6.2E-2</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="27"/>
       <c r="AA21" s="27"/>
@@ -3489,7 +3430,7 @@
       </c>
       <c r="H22" s="33" t="str">
         <f t="shared" ref="H22:H45" ca="1" si="5">SUBSTITUTE(IF(E22="","",I22+J22+K22),",",".")</f>
-        <v>10</v>
+        <v>10.021</v>
       </c>
       <c r="I22" s="9">
         <f>SUMIFS(Y$10:Y$33,IF(OR(B$1="ga_es",B$1="ga_brp_es"),U$10:U$33,IF(B$1="ga_brp",T$10:T$33,S$10:S$33)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F22,IF(B$1="ga_brp",G22,E22)),R$10:R$33,D22)</f>
@@ -3497,11 +3438,11 @@
       </c>
       <c r="J22" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D22,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D22,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),Tabel1342323[es_id],IF(B$1="ga_brp",Tabel1342323[brp_id],Tabel1342323[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F22,IF(B$1="ga_brp",G22,E22)),IF(B$2="production",Tabel1342323[type],Tabel1342323[settlement_method]),AG$2,Tabel1342323[resolution],"PT15M")</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K22" s="9">
         <f t="shared" ref="K22:K45" si="6">IF(AND(C22="skmp",B$2="production"),VLOOKUP(D22,D$78:H$81,5,FALSE),IF(AND(B22="glmp",B$2="flex_consumption"),VLOOKUP(D22,D$72:H$75,5,FALSE),0))</f>
-        <v>0</v>
+        <v>10.020999999999999</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -3631,7 +3572,7 @@
       </c>
       <c r="H23" s="33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1.458</v>
+        <v>4.02</v>
       </c>
       <c r="I23" s="9">
         <f t="shared" ref="I23:I45" si="8">SUMIFS(Y$10:Y$33,IF(OR(B$1="ga_es",B$1="ga_brp_es"),U$10:U$33,IF(B$1="ga_brp",T$10:T$33,S$10:S$33)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F23,IF(B$1="ga_brp",G23,E23)),R$10:R$33,D23)</f>
@@ -3643,7 +3584,7 @@
       </c>
       <c r="K23" s="9">
         <f t="shared" si="6"/>
-        <v>1.4579999999999997</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -3776,7 +3717,7 @@
       </c>
       <c r="H24" s="33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1.457</v>
+        <v>4.02</v>
       </c>
       <c r="I24" s="9">
         <f t="shared" si="8"/>
@@ -3788,7 +3729,7 @@
       </c>
       <c r="K24" s="9">
         <f t="shared" si="6"/>
-        <v>1.4569999999999999</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -3924,7 +3865,7 @@
       </c>
       <c r="H25" s="33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1.459</v>
+        <v>4.021</v>
       </c>
       <c r="I25" s="9">
         <f t="shared" si="8"/>
@@ -3936,7 +3877,7 @@
       </c>
       <c r="K25" s="9">
         <f t="shared" si="6"/>
-        <v>1.459000000000001</v>
+        <v>4.0210000000000008</v>
       </c>
       <c r="L25" s="37"/>
       <c r="M25" s="2"/>
@@ -4053,7 +3994,7 @@
       </c>
       <c r="C26" s="16" t="str">
         <f>IF(AND(F26&lt;&gt;"null",F26&lt;&gt;""),IF(F26=INDEX(Tabel1342323[es_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(AND(G26&lt;&gt;"null",G26&lt;&gt;""),IF(G26=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E26=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
-        <v/>
+        <v>skmp</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>74</v>
@@ -4064,19 +4005,19 @@
       </c>
       <c r="F26" s="31" t="str">
         <f>IF(B$1="ga",IF(E26="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$3=0,"",AE$3),IF(B$1="ga_brp",IF(G26="","","null"))))</f>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="G26" s="31" t="str">
         <f>IF(B$1="ga",IF(E26="","","null"),IF(B$1="ga_es",IF(F26="","","null"),IF(B$1="ga_brp",IF(AF$3=0,"",AF$3),IF(F26="","",INDEX(Tabel1342323[brp_id],MATCH(F26,Tabel1342323[es_id],0),1)))))</f>
-        <v>1100000000000</v>
+        <v>2200000000000</v>
       </c>
       <c r="H26" s="33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="I26" s="9">
         <f t="shared" si="8"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="J26" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D26,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D26,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),Tabel1342323[es_id],IF(B$1="ga_brp",Tabel1342323[brp_id],Tabel1342323[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F26,IF(B$1="ga_brp",G26,E26)),IF(B$2="production",Tabel1342323[type],Tabel1342323[settlement_method]),AG$2,Tabel1342323[resolution],"PT15M")</f>
@@ -4195,7 +4136,7 @@
       </c>
       <c r="C27" s="16" t="str">
         <f>IF(AND(F27&lt;&gt;"null",F27&lt;&gt;""),IF(F27=INDEX(Tabel1342323[es_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(AND(G27&lt;&gt;"null",G27&lt;&gt;""),IF(G27=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E27=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
-        <v/>
+        <v>skmp</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>75</v>
@@ -4206,19 +4147,19 @@
       </c>
       <c r="F27" s="31" t="str">
         <f>IF(B$1="ga",IF(E27="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$3=0,"",AE$3),IF(B$1="ga_brp",IF(G27="","","null"))))</f>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="G27" s="31" t="str">
         <f>IF(B$1="ga",IF(E27="","","null"),IF(B$1="ga_es",IF(F27="","","null"),IF(B$1="ga_brp",IF(AF$3=0,"",AF$3),IF(F27="","",INDEX(Tabel1342323[brp_id],MATCH(F27,Tabel1342323[es_id],0),1)))))</f>
-        <v>1100000000000</v>
+        <v>2200000000000</v>
       </c>
       <c r="H27" s="33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="I27" s="9">
         <f t="shared" si="8"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="J27" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D27,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D27,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),Tabel1342323[es_id],IF(B$1="ga_brp",Tabel1342323[brp_id],Tabel1342323[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F27,IF(B$1="ga_brp",G27,E27)),IF(B$2="production",Tabel1342323[type],Tabel1342323[settlement_method]),AG$2,Tabel1342323[resolution],"PT15M")</f>
@@ -4346,7 +4287,7 @@
       </c>
       <c r="C28" s="16" t="str">
         <f>IF(AND(F28&lt;&gt;"null",F28&lt;&gt;""),IF(F28=INDEX(Tabel1342323[es_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(AND(G28&lt;&gt;"null",G28&lt;&gt;""),IF(G28=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E28=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
-        <v/>
+        <v>skmp</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>76</v>
@@ -4357,19 +4298,19 @@
       </c>
       <c r="F28" s="31" t="str">
         <f>IF(B$1="ga",IF(E28="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$3=0,"",AE$3),IF(B$1="ga_brp",IF(G28="","","null"))))</f>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="G28" s="31" t="str">
         <f>IF(B$1="ga",IF(E28="","","null"),IF(B$1="ga_es",IF(F28="","","null"),IF(B$1="ga_brp",IF(AF$3=0,"",AF$3),IF(F28="","",INDEX(Tabel1342323[brp_id],MATCH(F28,Tabel1342323[es_id],0),1)))))</f>
-        <v>1100000000000</v>
+        <v>2200000000000</v>
       </c>
       <c r="H28" s="33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="I28" s="9">
         <f t="shared" si="8"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="J28" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D28,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D28,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),Tabel1342323[es_id],IF(B$1="ga_brp",Tabel1342323[brp_id],Tabel1342323[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F28,IF(B$1="ga_brp",G28,E28)),IF(B$2="production",Tabel1342323[type],Tabel1342323[settlement_method]),AG$2,Tabel1342323[resolution],"PT15M")</f>
@@ -4422,7 +4363,7 @@
       <c r="AC28" s="2"/>
       <c r="AD28" s="36"/>
       <c r="AE28" s="36" t="str" cm="1">
-        <f t="array" ref="AE28:AE29">IFERROR(IF($B$2="production",INDEX(_xlfn._xlws.FILTER(Tabel1342323[[type]:[brp_id]],(Tabel1342323[es_id]=AE13)*(Tabel1342323[type]="E18"),""),,9),INDEX(_xlfn._xlws.FILTER(Tabel1342323[[type]:[brp_id]],(Tabel1342323[es_id]=AE13)*(Tabel1342323[settlement_method]=AG$2),""),,9)),"")</f>
+        <f t="array" ref="AE28">IFERROR(IF($B$2="production",INDEX(_xlfn._xlws.FILTER(Tabel1342323[[type]:[brp_id]],(Tabel1342323[es_id]=AE13)*(Tabel1342323[type]="E18"),""),,9),INDEX(_xlfn._xlws.FILTER(Tabel1342323[[type]:[brp_id]],(Tabel1342323[es_id]=AE13)*(Tabel1342323[settlement_method]=AG$2),""),,9)),"")</f>
         <v>1000000000000</v>
       </c>
       <c r="AF28" s="36" t="str" cm="1">
@@ -4497,7 +4438,7 @@
       </c>
       <c r="C29" s="16" t="str">
         <f>IF(AND(F29&lt;&gt;"null",F29&lt;&gt;""),IF(F29=INDEX(Tabel1342323[es_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(AND(G29&lt;&gt;"null",G29&lt;&gt;""),IF(G29=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E29=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
-        <v/>
+        <v>skmp</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>77</v>
@@ -4508,19 +4449,19 @@
       </c>
       <c r="F29" s="31" t="str">
         <f>IF(B$1="ga",IF(E29="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$3=0,"",AE$3),IF(B$1="ga_brp",IF(G29="","","null"))))</f>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="G29" s="31" t="str">
         <f>IF(B$1="ga",IF(E29="","","null"),IF(B$1="ga_es",IF(F29="","","null"),IF(B$1="ga_brp",IF(AF$3=0,"",AF$3),IF(F29="","",INDEX(Tabel1342323[brp_id],MATCH(F29,Tabel1342323[es_id],0),1)))))</f>
-        <v>1100000000000</v>
+        <v>2200000000000</v>
       </c>
       <c r="H29" s="33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="I29" s="9">
         <f t="shared" si="8"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="J29" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D29,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D29,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),Tabel1342323[es_id],IF(B$1="ga_brp",Tabel1342323[brp_id],Tabel1342323[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F29,IF(B$1="ga_brp",G29,E29)),IF(B$2="production",Tabel1342323[type],Tabel1342323[settlement_method]),AG$2,Tabel1342323[resolution],"PT15M")</f>
@@ -4567,9 +4508,6 @@
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
       <c r="AD29" s="36"/>
-      <c r="AE29" s="1" t="str">
-        <v>1000000000000</v>
-      </c>
       <c r="AF29" s="36" t="str" cm="1">
         <f t="array" ref="AF29">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(Tabel1342323[[type]:[brp_id]],(Tabel1342323[brp_id]=AF14)*(Tabel1342323[type]=$AG$2),""),,10)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(Tabel1342323[[type]:[brp_id]],(Tabel1342323[brp_id]=AF14)*(Tabel1342323[settlement_method]=AG$2),""),,10))),"")</f>
         <v>2200000000000</v>
@@ -4642,30 +4580,30 @@
       </c>
       <c r="C30" s="16" t="str">
         <f>IF(AND(F30&lt;&gt;"null",F30&lt;&gt;""),IF(F30=INDEX(Tabel1342323[es_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(AND(G30&lt;&gt;"null",G30&lt;&gt;""),IF(G30=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E30=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
-        <v>skmp</v>
+        <v/>
       </c>
       <c r="D30" s="15" t="s">
         <v>74</v>
       </c>
       <c r="E30" s="31" t="str">
         <f t="shared" si="7"/>
-        <v>800</v>
+        <v/>
       </c>
       <c r="F30" s="31" t="str">
         <f>IF(B$1="ga",IF(E30="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$4=0,"",AE$4),IF(B$1="ga_brp",IF(G30="","","null"))))</f>
-        <v>3000000000000</v>
+        <v/>
       </c>
       <c r="G30" s="31" t="str">
         <f>IF(B$1="ga",IF(E30="","","null"),IF(B$1="ga_es",IF(F30="","","null"),IF(B$1="ga_brp",IF(AF$4=0,"",AF$4),IF(F30="","",INDEX(Tabel1342323[brp_id],MATCH(F30,Tabel1342323[es_id],0),1)))))</f>
-        <v>2200000000000</v>
+        <v/>
       </c>
       <c r="H30" s="33" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.063</v>
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="I30" s="9">
         <f t="shared" si="8"/>
-        <v>6.3E-2</v>
+        <v>0</v>
       </c>
       <c r="J30" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D30,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D30,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),Tabel1342323[es_id],IF(B$1="ga_brp",Tabel1342323[brp_id],Tabel1342323[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F30,IF(B$1="ga_brp",G30,E30)),IF(B$2="production",Tabel1342323[type],Tabel1342323[settlement_method]),AG$2,Tabel1342323[resolution],"PT15M")</f>
@@ -4711,7 +4649,7 @@
       <c r="AD30" s="36"/>
       <c r="AE30" s="36" t="str" cm="1">
         <f t="array" ref="AE30">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(Tabel1342323[[type]:[brp_id]],(Tabel1342323[es_id]=AE14)*(Tabel1342323[type]="E18"),""),,9)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(Tabel1342323[[type]:[brp_id]],(Tabel1342323[es_id]=AE14)*(Tabel1342323[settlement_method]=AG$2),""),,9))),"")</f>
-        <v>2000000000000</v>
+        <v/>
       </c>
       <c r="AF30" s="36" t="str" cm="1">
         <f t="array" ref="AF30">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(Tabel1342323[[type]:[brp_id]],(Tabel1342323[brp_id]=AF15)*(Tabel1342323[type]=$AG$2),""),,10)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(Tabel1342323[[type]:[brp_id]],(Tabel1342323[brp_id]=AF15)*(Tabel1342323[settlement_method]=AG$2),""),,10))),"")</f>
@@ -4785,30 +4723,30 @@
       </c>
       <c r="C31" s="16" t="str">
         <f>IF(AND(F31&lt;&gt;"null",F31&lt;&gt;""),IF(F31=INDEX(Tabel1342323[es_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(AND(G31&lt;&gt;"null",G31&lt;&gt;""),IF(G31=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E31=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
-        <v>skmp</v>
+        <v/>
       </c>
       <c r="D31" s="15" t="s">
         <v>75</v>
       </c>
       <c r="E31" s="31" t="str">
         <f t="shared" si="7"/>
-        <v>800</v>
+        <v/>
       </c>
       <c r="F31" s="31" t="str">
         <f>IF(B$1="ga",IF(E31="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$4=0,"",AE$4),IF(B$1="ga_brp",IF(G31="","","null"))))</f>
-        <v>3000000000000</v>
+        <v/>
       </c>
       <c r="G31" s="31" t="str">
         <f>IF(B$1="ga",IF(E31="","","null"),IF(B$1="ga_es",IF(F31="","","null"),IF(B$1="ga_brp",IF(AF$4=0,"",AF$4),IF(F31="","",INDEX(Tabel1342323[brp_id],MATCH(F31,Tabel1342323[es_id],0),1)))))</f>
-        <v>2200000000000</v>
+        <v/>
       </c>
       <c r="H31" s="33" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.062</v>
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="I31" s="9">
         <f t="shared" si="8"/>
-        <v>6.2E-2</v>
+        <v>0</v>
       </c>
       <c r="J31" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D31,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D31,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),Tabel1342323[es_id],IF(B$1="ga_brp",Tabel1342323[brp_id],Tabel1342323[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F31,IF(B$1="ga_brp",G31,E31)),IF(B$2="production",Tabel1342323[type],Tabel1342323[settlement_method]),AG$2,Tabel1342323[resolution],"PT15M")</f>
@@ -4931,30 +4869,30 @@
       </c>
       <c r="C32" s="16" t="str">
         <f>IF(AND(F32&lt;&gt;"null",F32&lt;&gt;""),IF(F32=INDEX(Tabel1342323[es_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(AND(G32&lt;&gt;"null",G32&lt;&gt;""),IF(G32=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E32=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
-        <v>skmp</v>
+        <v/>
       </c>
       <c r="D32" s="15" t="s">
         <v>76</v>
       </c>
       <c r="E32" s="31" t="str">
         <f t="shared" si="7"/>
-        <v>800</v>
+        <v/>
       </c>
       <c r="F32" s="31" t="str">
         <f>IF(B$1="ga",IF(E32="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$4=0,"",AE$4),IF(B$1="ga_brp",IF(G32="","","null"))))</f>
-        <v>3000000000000</v>
+        <v/>
       </c>
       <c r="G32" s="31" t="str">
         <f>IF(B$1="ga",IF(E32="","","null"),IF(B$1="ga_es",IF(F32="","","null"),IF(B$1="ga_brp",IF(AF$4=0,"",AF$4),IF(F32="","",INDEX(Tabel1342323[brp_id],MATCH(F32,Tabel1342323[es_id],0),1)))))</f>
-        <v>2200000000000</v>
+        <v/>
       </c>
       <c r="H32" s="33" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.063</v>
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="I32" s="9">
         <f t="shared" si="8"/>
-        <v>6.3E-2</v>
+        <v>0</v>
       </c>
       <c r="J32" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D32,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D32,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),Tabel1342323[es_id],IF(B$1="ga_brp",Tabel1342323[brp_id],Tabel1342323[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F32,IF(B$1="ga_brp",G32,E32)),IF(B$2="production",Tabel1342323[type],Tabel1342323[settlement_method]),AG$2,Tabel1342323[resolution],"PT15M")</f>
@@ -5077,30 +5015,30 @@
       </c>
       <c r="C33" s="16" t="str">
         <f>IF(AND(F33&lt;&gt;"null",F33&lt;&gt;""),IF(F33=INDEX(Tabel1342323[es_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(AND(G33&lt;&gt;"null",G33&lt;&gt;""),IF(G33=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E33=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
-        <v>skmp</v>
+        <v/>
       </c>
       <c r="D33" s="15" t="s">
         <v>77</v>
       </c>
       <c r="E33" s="31" t="str">
         <f t="shared" si="7"/>
-        <v>800</v>
+        <v/>
       </c>
       <c r="F33" s="31" t="str">
         <f>IF(B$1="ga",IF(E33="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$4=0,"",AE$4),IF(B$1="ga_brp",IF(G33="","","null"))))</f>
-        <v>3000000000000</v>
+        <v/>
       </c>
       <c r="G33" s="31" t="str">
         <f>IF(B$1="ga",IF(E33="","","null"),IF(B$1="ga_es",IF(F33="","","null"),IF(B$1="ga_brp",IF(AF$4=0,"",AF$4),IF(F33="","",INDEX(Tabel1342323[brp_id],MATCH(F33,Tabel1342323[es_id],0),1)))))</f>
-        <v>2200000000000</v>
+        <v/>
       </c>
       <c r="H33" s="33" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.062</v>
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="I33" s="9">
         <f t="shared" si="8"/>
-        <v>6.2E-2</v>
+        <v>0</v>
       </c>
       <c r="J33" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D33,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D33,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),Tabel1342323[es_id],IF(B$1="ga_brp",Tabel1342323[brp_id],Tabel1342323[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F33,IF(B$1="ga_brp",G33,E33)),IF(B$2="production",Tabel1342323[type],Tabel1342323[settlement_method]),AG$2,Tabel1342323[resolution],"PT15M")</f>
@@ -5386,7 +5324,7 @@
       <c r="U35" s="24"/>
       <c r="V35" s="28">
         <f>SUMIFS(Tabel1342323[TotalHour],Tabel1342323[settlement_method],"D01",Tabel1342323[resolution],"PT1H")</f>
-        <v>10.25</v>
+        <v>0</v>
       </c>
       <c r="W35" s="16" t="s">
         <v>49</v>
@@ -5394,11 +5332,11 @@
       <c r="X35" s="16"/>
       <c r="Y35" s="28">
         <f>SUM(Y37:Y40)</f>
-        <v>10.25</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="21">
         <f>SUM(Z37:Z40)</f>
-        <v>10.252000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="27"/>
       <c r="AB35" s="2"/>
@@ -5522,7 +5460,7 @@
       </c>
       <c r="V36" s="20">
         <f>SUMIFS(Tabel1342323[TotalHour],Tabel1342323[settlement_method],"D01",Tabel1342323[resolution],"PT1H")/4</f>
-        <v>2.5625</v>
+        <v>0</v>
       </c>
       <c r="W36" s="7" t="s">
         <v>45</v>
@@ -5658,20 +5596,20 @@
       </c>
       <c r="V37" s="19">
         <f>V$36</f>
-        <v>2.5625</v>
+        <v>0</v>
       </c>
       <c r="W37" s="19">
         <f>V37</f>
-        <v>2.5625</v>
+        <v>0</v>
       </c>
       <c r="X37" s="19"/>
       <c r="Y37" s="23">
         <f>ROUND(W37, 3)</f>
-        <v>2.5630000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="23">
         <f>ROUND(V37,3)</f>
-        <v>2.5630000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA37" s="27"/>
       <c r="AB37" s="2"/>
@@ -5795,23 +5733,23 @@
       </c>
       <c r="V38" s="19">
         <f>V$36</f>
-        <v>2.5625</v>
+        <v>0</v>
       </c>
       <c r="W38" s="19">
         <f>X38+W37</f>
-        <v>2.5619999999999998</v>
+        <v>0</v>
       </c>
       <c r="X38" s="19">
         <f>V38-Y37</f>
-        <v>-5.0000000000016698E-4</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="23">
         <f>ROUND(W38, 3)</f>
-        <v>2.5619999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z38" s="23">
         <f>ROUND(V38,3)</f>
-        <v>2.5630000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA38" s="27"/>
       <c r="AB38" s="2"/>
@@ -5935,23 +5873,23 @@
       </c>
       <c r="V39" s="19">
         <f>V$36</f>
-        <v>2.5625</v>
+        <v>0</v>
       </c>
       <c r="W39" s="19">
         <f>X39+W38</f>
-        <v>2.5625</v>
+        <v>0</v>
       </c>
       <c r="X39" s="19">
         <f>V39-Y38</f>
-        <v>5.0000000000016698E-4</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="23">
         <f>ROUND(W39, 3)</f>
-        <v>2.5630000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="23">
         <f>ROUND(V39,3)</f>
-        <v>2.5630000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA39" s="27"/>
       <c r="AB39" s="2"/>
@@ -6075,23 +6013,23 @@
       </c>
       <c r="V40" s="19">
         <f>V$36</f>
-        <v>2.5625</v>
+        <v>0</v>
       </c>
       <c r="W40" s="19">
         <f>X40+W39</f>
-        <v>2.5619999999999998</v>
+        <v>0</v>
       </c>
       <c r="X40" s="19">
         <f>V40-Y39</f>
-        <v>-5.0000000000016698E-4</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="23">
         <f>ROUND(W40, 3)</f>
-        <v>2.5619999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="23">
         <f>ROUND(V40,3)</f>
-        <v>2.5630000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="27"/>
       <c r="AB40" s="2"/>
@@ -7727,7 +7665,7 @@
       </c>
       <c r="H54" s="32">
         <f>totalFlex1H_quarter1+totalFlex15M_quarter1</f>
-        <v>12.563000000000001</v>
+        <v>0</v>
       </c>
       <c r="R54" s="24"/>
       <c r="S54" s="24"/>
@@ -7837,7 +7775,7 @@
       </c>
       <c r="H55" s="32">
         <f>totalFlex1H_quarter2+totalFlex15M_quarter2</f>
-        <v>2.5619999999999998</v>
+        <v>0</v>
       </c>
       <c r="R55" s="24"/>
       <c r="S55" s="24"/>
@@ -7948,7 +7886,7 @@
       </c>
       <c r="H56" s="32">
         <f>totalFlex1H_quarter3+totalFlex15M_quarter3</f>
-        <v>2.5630000000000002</v>
+        <v>0</v>
       </c>
       <c r="R56" s="24"/>
       <c r="S56" s="24"/>
@@ -8062,7 +8000,7 @@
       </c>
       <c r="H57" s="32">
         <f>totalFlex1H_quarter4+totalFlex15M_quarter4</f>
-        <v>2.5619999999999998</v>
+        <v>0</v>
       </c>
       <c r="R57" s="24"/>
       <c r="S57" s="24"/>
@@ -8931,7 +8869,7 @@
       <c r="U65" s="24"/>
       <c r="V65" s="28">
         <f>ROUND(SUMIFS(Tabel1342323[TotalHour],Tabel1342323[type],"E17",Tabel1342323[resolution],"PT1H"),3)</f>
-        <v>19.056999999999999</v>
+        <v>8.8070000000000004</v>
       </c>
       <c r="W65" s="52" t="s">
         <v>49</v>
@@ -8939,11 +8877,11 @@
       <c r="X65" s="53"/>
       <c r="Y65" s="28">
         <f>ROUND(SUM(Y67:Y70),3)</f>
-        <v>19.056999999999999</v>
+        <v>8.8070000000000004</v>
       </c>
       <c r="Z65" s="21">
         <f>SUM(Z67:Z70)</f>
-        <v>19.056000000000001</v>
+        <v>8.8079999999999998</v>
       </c>
       <c r="AA65" s="27"/>
       <c r="AB65" s="2"/>
@@ -9029,7 +8967,7 @@
       </c>
       <c r="H66" s="32">
         <f>totalProduction1H_quarter1+totalProduction15M_quarter1+netEx_quarter1-totalFlex1H_quarter1-totalFlex15M_quarter1-totalNonprofiled1H_quarter1-totalNonprofiled15M_quarter1</f>
-        <v>-2.5420000000000016</v>
+        <v>10.020999999999999</v>
       </c>
       <c r="R66" s="24"/>
       <c r="S66" s="24"/>
@@ -9039,7 +8977,7 @@
       </c>
       <c r="V66" s="9">
         <f>SUMIFS(Tabel1342323[TotalHour],Tabel1342323[type],"E17",Tabel1342323[resolution],"PT1H")/4</f>
-        <v>4.7642500000000005</v>
+        <v>2.2017500000000001</v>
       </c>
       <c r="W66" s="7" t="s">
         <v>45</v>
@@ -9137,7 +9075,7 @@
       </c>
       <c r="H67" s="32">
         <f>totalProduction1H_quarter2+totalProduction15M_quarter2+netEx_quarter2-totalFlex1H_quarter2-totalFlex15M_quarter2-totalNonprofiled1H_quarter2-totalNonprofiled15M_quarter2</f>
-        <v>1.4579999999999997</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="R67" s="24"/>
       <c r="S67" s="24"/>
@@ -9147,20 +9085,20 @@
       </c>
       <c r="V67" s="19">
         <f>V$66</f>
-        <v>4.7642500000000005</v>
+        <v>2.2017500000000001</v>
       </c>
       <c r="W67" s="19">
         <f>V67</f>
-        <v>4.7642500000000005</v>
+        <v>2.2017500000000001</v>
       </c>
       <c r="X67" s="19"/>
       <c r="Y67" s="23">
         <f>ROUND(W67, 3)</f>
-        <v>4.7640000000000002</v>
+        <v>2.202</v>
       </c>
       <c r="Z67" s="23">
         <f>ROUND(V67,3)</f>
-        <v>4.7640000000000002</v>
+        <v>2.202</v>
       </c>
       <c r="AA67" s="27"/>
       <c r="AB67" s="2"/>
@@ -9246,7 +9184,7 @@
       </c>
       <c r="H68" s="32">
         <f>totalProduction1H_quarter3+totalProduction15M_quarter3+netEx_quarter3-totalFlex1H_quarter3-totalFlex15M_quarter3-totalNonprofiled1H_quarter3-totalNonprofiled15M_quarter3</f>
-        <v>1.4569999999999999</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="R68" s="24"/>
       <c r="S68" s="24"/>
@@ -9256,23 +9194,23 @@
       </c>
       <c r="V68" s="19">
         <f>V$66</f>
-        <v>4.7642500000000005</v>
+        <v>2.2017500000000001</v>
       </c>
       <c r="W68" s="19">
         <f>X68+W67</f>
-        <v>4.7645000000000008</v>
+        <v>2.2015000000000002</v>
       </c>
       <c r="X68" s="19">
         <f>V68-Y67</f>
-        <v>2.5000000000030553E-4</v>
+        <v>-2.4999999999986144E-4</v>
       </c>
       <c r="Y68" s="23">
         <f>ROUND(W68, 3)</f>
-        <v>4.7649999999999997</v>
+        <v>2.202</v>
       </c>
       <c r="Z68" s="23">
         <f>ROUND(V68,3)</f>
-        <v>4.7640000000000002</v>
+        <v>2.202</v>
       </c>
       <c r="AA68" s="27"/>
       <c r="AB68" s="2"/>
@@ -9358,7 +9296,7 @@
       </c>
       <c r="H69" s="32">
         <f>totalProduction1H_quarter4+totalProduction15M_quarter4+netEx_quarter4-totalFlex1H_quarter4-totalFlex15M_quarter4-totalNonprofiled1H_quarter4-totalNonprofiled15M_quarter4</f>
-        <v>1.459000000000001</v>
+        <v>4.0210000000000008</v>
       </c>
       <c r="J69" s="2"/>
       <c r="R69" s="24"/>
@@ -9369,23 +9307,23 @@
       </c>
       <c r="V69" s="19">
         <f>V$66</f>
-        <v>4.7642500000000005</v>
+        <v>2.2017500000000001</v>
       </c>
       <c r="W69" s="19">
         <f>X69+W68</f>
-        <v>4.7637500000000017</v>
+        <v>2.2012500000000004</v>
       </c>
       <c r="X69" s="19">
         <f>V69-Y68</f>
-        <v>-7.4999999999914024E-4</v>
+        <v>-2.4999999999986144E-4</v>
       </c>
       <c r="Y69" s="23">
         <f>ROUND(W69, 3)</f>
-        <v>4.7640000000000002</v>
+        <v>2.2010000000000001</v>
       </c>
       <c r="Z69" s="23">
         <f>ROUND(V69,3)</f>
-        <v>4.7640000000000002</v>
+        <v>2.202</v>
       </c>
       <c r="AA69" s="27"/>
       <c r="AB69" s="2"/>
@@ -9470,23 +9408,23 @@
       </c>
       <c r="V70" s="19">
         <f>V$66</f>
-        <v>4.7642500000000005</v>
+        <v>2.2017500000000001</v>
       </c>
       <c r="W70" s="19">
         <f>X70+W69</f>
-        <v>4.764000000000002</v>
+        <v>2.2020000000000004</v>
       </c>
       <c r="X70" s="19">
         <f>V70-Y69</f>
-        <v>2.5000000000030553E-4</v>
+        <v>7.5000000000002842E-4</v>
       </c>
       <c r="Y70" s="23">
         <f>ROUND(W70, 3)</f>
-        <v>4.7640000000000002</v>
+        <v>2.202</v>
       </c>
       <c r="Z70" s="23">
         <f>ROUND(V70,3)</f>
-        <v>4.7640000000000002</v>
+        <v>2.202</v>
       </c>
       <c r="AA70" s="27"/>
       <c r="AB70" s="2"/>
@@ -9665,7 +9603,7 @@
       </c>
       <c r="H72" s="32">
         <f>IF(gridLoss1H_quarter4&gt;0,gridLoss1H_quarter4,0)</f>
-        <v>1.459000000000001</v>
+        <v>4.0210000000000008</v>
       </c>
       <c r="R72" s="24"/>
       <c r="S72" s="27"/>
@@ -9760,7 +9698,7 @@
       </c>
       <c r="H73" s="32">
         <f>IF(gridLoss1H_quarter3&gt;0,gridLoss1H_quarter3,0)</f>
-        <v>1.4569999999999999</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
@@ -9848,7 +9786,7 @@
       </c>
       <c r="H74" s="32">
         <f>IF(gridLoss1H_quarter2&gt;0,gridLoss1H_quarter2,0)</f>
-        <v>1.4579999999999997</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="I74" s="2"/>
       <c r="N74" s="2"/>
@@ -9948,7 +9886,7 @@
       </c>
       <c r="H75" s="32">
         <f>IF(gridLoss1H_quarter1&gt;0,gridLoss1H_quarter1,0)</f>
-        <v>0</v>
+        <v>10.020999999999999</v>
       </c>
       <c r="I75" s="2"/>
       <c r="P75" s="2"/>
@@ -10552,7 +10490,7 @@
       </c>
       <c r="H81" s="32">
         <f>IF(gridLoss1H_quarter1&lt;0,(gridLoss1H_quarter1)*-1,0)</f>
-        <v>2.5420000000000016</v>
+        <v>0</v>
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
@@ -10851,7 +10789,7 @@
       </c>
       <c r="H84" s="32" t="str">
         <f>SUBSTITUTE(netEx_quarter1+totalProduction1H_quarter1+totalProduction15M_quarter1+negGridLossQuarter1,",",".")</f>
-        <v>19.765</v>
+        <v>17.223</v>
       </c>
       <c r="I84" s="37"/>
       <c r="J84" s="2"/>
@@ -40694,12 +40632,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="17d0a144-7218-432a-80c1-1473a2ac0f84" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40879,17 +40816,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="17d0a144-7218-432a-80c1-1473a2ac0f84" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4F67E43-074E-4C0F-B170-E53BCA717C8F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B51BD707-A63C-4C12-A5D3-024A5FAE9E8F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="17d0a144-7218-432a-80c1-1473a2ac0f84"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -40913,17 +40859,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B51BD707-A63C-4C12-A5D3-024A5FAE9E8F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4F67E43-074E-4C0F-B170-E53BCA717C8F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="17d0a144-7218-432a-80c1-1473a2ac0f84"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>